--- a/최종 테이블데이터/new/pkTimeFeeDTO_edit.xlsx
+++ b/최종 테이블데이터/new/pkTimeFeeDTO_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITstudy\project2\Gyeongui-Line-forest-road-Project\최종 테이블데이터\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB783ED-8A6D-4683-8009-6D59FD5C141F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C57F67F-1348-4923-9153-6CED72BBC0E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11808" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="A2:K63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <sheetData>
